--- a/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.41858501149359</v>
+        <v>90.98279952671938</v>
       </c>
       <c r="D2" t="n">
-        <v>5.385644197236999</v>
+        <v>4.633167743571432</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.09739261946825</v>
+        <v>88.93282765909932</v>
       </c>
       <c r="D3" t="n">
-        <v>4.249833904919367</v>
+        <v>4.78018831479927</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.82266145119432</v>
+        <v>88.08818375588427</v>
       </c>
       <c r="D4" t="n">
-        <v>4.804040200830777</v>
+        <v>5.133174643766645</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.04499622342303</v>
+        <v>87.25796478317773</v>
       </c>
       <c r="D5" t="n">
-        <v>5.992104610314488</v>
+        <v>4.957694909582197</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.65219505804058</v>
+        <v>86.70679276308636</v>
       </c>
       <c r="D6" t="n">
-        <v>4.89902737791363</v>
+        <v>4.834690479592477</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.67816274978399</v>
+        <v>84.89586457362493</v>
       </c>
       <c r="D7" t="n">
-        <v>5.017922823038361</v>
+        <v>4.556289882009614</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.49804273518704</v>
+        <v>83.85069569096939</v>
       </c>
       <c r="D8" t="n">
-        <v>5.28684801897974</v>
+        <v>4.814264796713717</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.91647158259234</v>
+        <v>82.89418775423734</v>
       </c>
       <c r="D9" t="n">
-        <v>4.689432444111681</v>
+        <v>4.638841846630009</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.83464627582464</v>
+        <v>81.5907815928461</v>
       </c>
       <c r="D10" t="n">
-        <v>5.075707048367182</v>
+        <v>5.052635618178967</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.24409180614757</v>
+        <v>80.40035140354091</v>
       </c>
       <c r="D11" t="n">
-        <v>4.709550621588813</v>
+        <v>5.090298955472362</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.7974432076753</v>
+        <v>79.7181818887363</v>
       </c>
       <c r="D12" t="n">
-        <v>5.474772486309</v>
+        <v>4.770090572205771</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.35186620328795</v>
+        <v>79.96891028759298</v>
       </c>
       <c r="D13" t="n">
-        <v>4.985251933698009</v>
+        <v>5.546124972551357</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.59194217254468</v>
+        <v>78.83619332722969</v>
       </c>
       <c r="D14" t="n">
-        <v>5.071256652044132</v>
+        <v>5.208121518421141</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.83462028975576</v>
+        <v>76.89001594834662</v>
       </c>
       <c r="D15" t="n">
-        <v>4.766248016715481</v>
+        <v>4.915416470062035</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.92331848507993</v>
+        <v>76.35127780533043</v>
       </c>
       <c r="D16" t="n">
-        <v>5.407060485167484</v>
+        <v>4.752182628972045</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.7284879679279</v>
+        <v>74.99374614199436</v>
       </c>
       <c r="D17" t="n">
-        <v>4.820159409731374</v>
+        <v>4.979224167474238</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.87079186326037</v>
+        <v>74.12458104502416</v>
       </c>
       <c r="D18" t="n">
-        <v>5.329270534439128</v>
+        <v>5.899035105747455</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.2503791522947</v>
+        <v>72.53593739894706</v>
       </c>
       <c r="D19" t="n">
-        <v>5.036798878942549</v>
+        <v>5.58620449792588</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.02656810120507</v>
+        <v>72.08684098624954</v>
       </c>
       <c r="D20" t="n">
-        <v>5.175851610138497</v>
+        <v>4.827747817451067</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.25860702954149</v>
+        <v>70.46256208697957</v>
       </c>
       <c r="D21" t="n">
-        <v>5.672622375425663</v>
+        <v>5.527532592840228</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.46356357167728</v>
+        <v>70.14261797953384</v>
       </c>
       <c r="D22" t="n">
-        <v>5.555754144114709</v>
+        <v>5.356208061463724</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.71121062177589</v>
+        <v>68.81396765241774</v>
       </c>
       <c r="D23" t="n">
-        <v>5.139005847221227</v>
+        <v>4.917279002135235</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.93379419110643</v>
+        <v>67.91343080054486</v>
       </c>
       <c r="D24" t="n">
-        <v>6.255054831309729</v>
+        <v>5.337854134462622</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.38420097496385</v>
+        <v>66.55078801246498</v>
       </c>
       <c r="D25" t="n">
-        <v>5.06286526996091</v>
+        <v>5.459257510140714</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.61467261933426</v>
+        <v>66.31568508793343</v>
       </c>
       <c r="D26" t="n">
-        <v>5.26849281355602</v>
+        <v>5.420834494289522</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.48668510816474</v>
+        <v>65.7950083402723</v>
       </c>
       <c r="D27" t="n">
-        <v>5.965107847046198</v>
+        <v>5.630598841999329</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.30658983229761</v>
+        <v>63.01189305580316</v>
       </c>
       <c r="D28" t="n">
-        <v>5.370951533864659</v>
+        <v>5.939931670716082</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.12515932058822</v>
+        <v>63.12467590739353</v>
       </c>
       <c r="D29" t="n">
-        <v>5.10114386906675</v>
+        <v>4.919018221683237</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.68796793476159</v>
+        <v>62.23485454912208</v>
       </c>
       <c r="D30" t="n">
-        <v>5.250124879861293</v>
+        <v>5.222476640094651</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.8519245726873</v>
+        <v>61.30076713496751</v>
       </c>
       <c r="D31" t="n">
-        <v>4.880386558160424</v>
+        <v>4.882792007078871</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.01927358126997</v>
+        <v>59.82362945766644</v>
       </c>
       <c r="D32" t="n">
-        <v>4.58784819464035</v>
+        <v>5.290117061012882</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.84457582951823</v>
+        <v>59.17341125358474</v>
       </c>
       <c r="D33" t="n">
-        <v>5.512305031069897</v>
+        <v>5.594505659229085</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.88899829823833</v>
+        <v>56.82516624083048</v>
       </c>
       <c r="D34" t="n">
-        <v>6.004101537599444</v>
+        <v>5.365922241506925</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.40183581308579</v>
+        <v>56.72195417608116</v>
       </c>
       <c r="D35" t="n">
-        <v>5.60911646667146</v>
+        <v>5.37134746658667</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.69817048371536</v>
+        <v>56.25385655169544</v>
       </c>
       <c r="D36" t="n">
-        <v>5.964848906063444</v>
+        <v>5.617292867173018</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.68380606491479</v>
+        <v>55.55764446908854</v>
       </c>
       <c r="D37" t="n">
-        <v>5.615408368618068</v>
+        <v>5.320559658828168</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.0369030028895</v>
+        <v>53.92856671865323</v>
       </c>
       <c r="D38" t="n">
-        <v>5.412275566911556</v>
+        <v>5.145874759652291</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.30481632759269</v>
+        <v>52.93864560231861</v>
       </c>
       <c r="D39" t="n">
-        <v>5.159476048304659</v>
+        <v>5.044779115441692</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.9186535274496</v>
+        <v>51.53274754584881</v>
       </c>
       <c r="D40" t="n">
-        <v>6.125072097311132</v>
+        <v>5.222680401489264</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.98681455742503</v>
+        <v>51.07264563314116</v>
       </c>
       <c r="D41" t="n">
-        <v>6.285400381197888</v>
+        <v>5.994152247730113</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.71135457001732</v>
+        <v>48.49466514120067</v>
       </c>
       <c r="D42" t="n">
-        <v>5.180143761445784</v>
+        <v>5.537153730792051</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.86894910562572</v>
+        <v>49.87528659524146</v>
       </c>
       <c r="D43" t="n">
-        <v>5.584308745147741</v>
+        <v>5.509790333904997</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.59672373253375</v>
+        <v>48.90633378936168</v>
       </c>
       <c r="D44" t="n">
-        <v>5.448606807354129</v>
+        <v>5.635561014449019</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.65249515875198</v>
+        <v>46.30013590600652</v>
       </c>
       <c r="D45" t="n">
-        <v>5.633955274120864</v>
+        <v>5.230238250818831</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.99607061585318</v>
+        <v>45.73887098796104</v>
       </c>
       <c r="D46" t="n">
-        <v>6.007834743570663</v>
+        <v>5.523395334358461</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.39633931086157</v>
+        <v>45.73752386074997</v>
       </c>
       <c r="D47" t="n">
-        <v>6.230319510653513</v>
+        <v>5.775017055260178</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.94759340780099</v>
+        <v>44.12019185661449</v>
       </c>
       <c r="D48" t="n">
-        <v>5.536704312893042</v>
+        <v>5.669031974807878</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.52083714619279</v>
+        <v>43.27685961730111</v>
       </c>
       <c r="D49" t="n">
-        <v>5.455497274567149</v>
+        <v>5.901137080221881</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.05838937779618</v>
+        <v>42.20499383157962</v>
       </c>
       <c r="D50" t="n">
-        <v>5.453550793344482</v>
+        <v>4.94490890226165</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.92503009618478</v>
+        <v>40.35447660814339</v>
       </c>
       <c r="D51" t="n">
-        <v>5.530675830926284</v>
+        <v>5.625730010621363</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.73197429455443</v>
+        <v>40.65326458043634</v>
       </c>
       <c r="D52" t="n">
-        <v>5.098104022653879</v>
+        <v>5.229286823008036</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.56411142211304</v>
+        <v>39.52411804211313</v>
       </c>
       <c r="D53" t="n">
-        <v>5.480665172628515</v>
+        <v>6.143288602452119</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.25414834250988</v>
+        <v>37.69983886741041</v>
       </c>
       <c r="D54" t="n">
-        <v>5.912572244630545</v>
+        <v>5.835147951316785</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.18038294336395</v>
+        <v>37.36362783189426</v>
       </c>
       <c r="D55" t="n">
-        <v>5.54251539196042</v>
+        <v>5.632424929427932</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.32443162194664</v>
+        <v>36.16908996106324</v>
       </c>
       <c r="D56" t="n">
-        <v>5.771016775640007</v>
+        <v>5.264399744335626</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.1383560025189</v>
+        <v>34.61609338901295</v>
       </c>
       <c r="D57" t="n">
-        <v>5.816845736946853</v>
+        <v>5.566111918798609</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.17229088584347</v>
+        <v>33.61415267158552</v>
       </c>
       <c r="D58" t="n">
-        <v>4.928158094151821</v>
+        <v>5.749151609020924</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.12473171563021</v>
+        <v>33.38473145836088</v>
       </c>
       <c r="D59" t="n">
-        <v>5.997578246072202</v>
+        <v>5.178339723901428</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.21551844927453</v>
+        <v>32.01378399710736</v>
       </c>
       <c r="D60" t="n">
-        <v>5.550540849697319</v>
+        <v>5.532866076199343</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.65882482594739</v>
+        <v>30.04388398443232</v>
       </c>
       <c r="D61" t="n">
-        <v>5.52093547128379</v>
+        <v>5.826206279666813</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.97142051545355</v>
+        <v>30.19885746512174</v>
       </c>
       <c r="D62" t="n">
-        <v>6.264342891085371</v>
+        <v>5.770095857980486</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.67034525161497</v>
+        <v>28.54062399602211</v>
       </c>
       <c r="D63" t="n">
-        <v>5.650265008273097</v>
+        <v>5.735130639736161</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.81239431730234</v>
+        <v>28.67341250308228</v>
       </c>
       <c r="D64" t="n">
-        <v>6.115640441245813</v>
+        <v>5.562925508223164</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.99596597278762</v>
+        <v>25.91059482393182</v>
       </c>
       <c r="D65" t="n">
-        <v>6.524189461697023</v>
+        <v>5.509454614492077</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.024677027746</v>
+        <v>25.85580316201032</v>
       </c>
       <c r="D66" t="n">
-        <v>6.613276509494402</v>
+        <v>5.927044582374475</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.05597214396665</v>
+        <v>24.49374957158277</v>
       </c>
       <c r="D67" t="n">
-        <v>6.247051130944499</v>
+        <v>5.388376535003234</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.18067960387473</v>
+        <v>24.58717495788398</v>
       </c>
       <c r="D68" t="n">
-        <v>6.087515815155125</v>
+        <v>5.388820522019891</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.73202449792414</v>
+        <v>22.82310225830688</v>
       </c>
       <c r="D69" t="n">
-        <v>5.923524351805197</v>
+        <v>5.319650863465871</v>
       </c>
     </row>
   </sheetData>
